--- a/PythonResources/Data/Consumption/Sympheny/post_CC_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CC_coo.xlsx
@@ -431,7 +431,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>38.21617037040077</v>
+        <v>38.21617037040076</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>57.09697896511928</v>
+        <v>57.09697896511927</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -871,7 +871,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>45.40080688318365</v>
+        <v>45.40080688318364</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>63.33089302848475</v>
+        <v>63.33089302848474</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>60.28178194225212</v>
+        <v>60.28178194225211</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>54.64368130048516</v>
+        <v>54.64368130048515</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>35.78309460743428</v>
+        <v>35.78309460743427</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>19.12596251855873</v>
+        <v>19.12596251855872</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>6.688672394056286</v>
+        <v>6.688672394056285</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>7.34415507912625</v>
+        <v>7.344155079126249</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>53.88169659996566</v>
+        <v>53.88169659996565</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>69.13868180163664</v>
+        <v>69.13868180163662</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>85.13479216281152</v>
+        <v>85.13479216281151</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>7.710142192206538</v>
+        <v>7.710142192206537</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>985</v>
       </c>
       <c r="B985">
-        <v>20.72451849893704</v>
+        <v>20.72451849893703</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>15.71930476515925</v>
+        <v>15.71930476515924</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>25.44571708914811</v>
+        <v>25.4457170891481</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>11.41209832416119</v>
+        <v>11.41209832416118</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>35.2734440712022</v>
+        <v>35.27344407120219</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>1228</v>
       </c>
       <c r="B1228">
-        <v>30.29739090577122</v>
+        <v>30.29739090577121</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>19.64578261983236</v>
+        <v>19.64578261983235</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>37.31439078443981</v>
+        <v>37.3143907844398</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>16.48902654109941</v>
+        <v>16.4890265410994</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10847,7 +10847,7 @@
         <v>1313</v>
       </c>
       <c r="B1313">
-        <v>50.33788160047267</v>
+        <v>50.33788160047266</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>11.70689848195064</v>
+        <v>11.70689848195063</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>26.57433365903295</v>
+        <v>26.57433365903294</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>61.06633311274854</v>
+        <v>61.06633311274853</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>62.92323121370682</v>
+        <v>62.92323121370681</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11047,7 +11047,7 @@
         <v>1338</v>
       </c>
       <c r="B1338">
-        <v>52.08546420401027</v>
+        <v>52.08546420401026</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>63.37162990285868</v>
+        <v>63.37162990285867</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>38.83279183574424</v>
+        <v>38.83279183574423</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>28.23809794551341</v>
+        <v>28.2380979455134</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>2.975872633671167</v>
+        <v>2.975872633671166</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>37.30413329808666</v>
+        <v>37.30413329808665</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11455,7 +11455,7 @@
         <v>1389</v>
       </c>
       <c r="B1389">
-        <v>42.34085216852054</v>
+        <v>42.34085216852053</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11511,7 +11511,7 @@
         <v>1396</v>
       </c>
       <c r="B1396">
-        <v>52.69944803000579</v>
+        <v>52.69944803000578</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>70.8349769734085</v>
+        <v>70.83497697340849</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11575,7 +11575,7 @@
         <v>1404</v>
       </c>
       <c r="B1404">
-        <v>63.36137241650553</v>
+        <v>63.36137241650552</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>78.68166096252736</v>
+        <v>78.68166096252735</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -12975,7 +12975,7 @@
         <v>1579</v>
       </c>
       <c r="B1579">
-        <v>52.51100335214655</v>
+        <v>52.51100335214654</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
@@ -13007,7 +13007,7 @@
         <v>1583</v>
       </c>
       <c r="B1583">
-        <v>28.29671215324568</v>
+        <v>28.29671215324567</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13063,7 +13063,7 @@
         <v>1590</v>
       </c>
       <c r="B1590">
-        <v>6.448852363119707</v>
+        <v>6.448852363119706</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -15047,7 +15047,7 @@
         <v>1838</v>
       </c>
       <c r="B1838">
-        <v>29.78393044603654</v>
+        <v>29.78393044603653</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>20.65807929447251</v>
+        <v>20.6580792944725</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15255,7 +15255,7 @@
         <v>1864</v>
       </c>
       <c r="B1864">
-        <v>29.04905481659322</v>
+        <v>29.04905481659321</v>
       </c>
     </row>
     <row r="1865" spans="1:2">
@@ -15279,7 +15279,7 @@
         <v>1867</v>
       </c>
       <c r="B1867">
-        <v>7.412001024576352</v>
+        <v>7.412001024576351</v>
       </c>
     </row>
     <row r="1868" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>61.53495370356803</v>
+        <v>61.53495370356802</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>55.38749559660765</v>
+        <v>55.38749559660764</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17383,7 +17383,7 @@
         <v>2130</v>
       </c>
       <c r="B2130">
-        <v>27.64117085396798</v>
+        <v>27.64117085396797</v>
       </c>
     </row>
     <row r="2131" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>16.02389349563999</v>
+        <v>16.02389349563998</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>7.905239582643396</v>
+        <v>7.905239582643395</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>6.440968752179717</v>
+        <v>6.440968752179716</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17895,7 +17895,7 @@
         <v>2194</v>
       </c>
       <c r="B2194">
-        <v>23.89759863452342</v>
+        <v>23.89759863452341</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>55.12490394596709</v>
+        <v>55.12490394596708</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>91.2898701167771</v>
+        <v>91.28987011677708</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18215,7 +18215,7 @@
         <v>2234</v>
       </c>
       <c r="B2234">
-        <v>19.66705957723917</v>
+        <v>19.66705957723916</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18399,7 +18399,7 @@
         <v>2257</v>
       </c>
       <c r="B2257">
-        <v>15.7754278690629</v>
+        <v>15.77542786906289</v>
       </c>
     </row>
     <row r="2258" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>20.39243970502986</v>
+        <v>20.39243970502985</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>45.57108115664589</v>
+        <v>45.57108115664588</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18479,7 +18479,7 @@
         <v>2267</v>
       </c>
       <c r="B2267">
-        <v>46.95701409847539</v>
+        <v>46.95701409847538</v>
       </c>
     </row>
     <row r="2268" spans="1:2">
@@ -18487,7 +18487,7 @@
         <v>2268</v>
       </c>
       <c r="B2268">
-        <v>46.07047420652482</v>
+        <v>46.07047420652481</v>
       </c>
     </row>
     <row r="2269" spans="1:2">
@@ -18495,7 +18495,7 @@
         <v>2269</v>
       </c>
       <c r="B2269">
-        <v>55.45372965134512</v>
+        <v>55.45372965134511</v>
       </c>
     </row>
     <row r="2270" spans="1:2">
@@ -18583,7 +18583,7 @@
         <v>2280</v>
       </c>
       <c r="B2280">
-        <v>7.342924180763872</v>
+        <v>7.342924180763871</v>
       </c>
     </row>
     <row r="2281" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>63.64154832946578</v>
+        <v>63.64154832946577</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -19151,7 +19151,7 @@
         <v>2351</v>
       </c>
       <c r="B2351">
-        <v>17.34514565923693</v>
+        <v>17.34514565923692</v>
       </c>
     </row>
     <row r="2352" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>7.91104238920889</v>
+        <v>7.911042389208889</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>81.57339290099885</v>
+        <v>81.57339290099884</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>71.17669780448763</v>
+        <v>71.17669780448762</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -19903,7 +19903,7 @@
         <v>2445</v>
       </c>
       <c r="B2445">
-        <v>81.71113628916969</v>
+        <v>81.71113628916967</v>
       </c>
     </row>
     <row r="2446" spans="1:2">
@@ -19911,7 +19911,7 @@
         <v>2446</v>
       </c>
       <c r="B2446">
-        <v>81.70058573177788</v>
+        <v>81.70058573177786</v>
       </c>
     </row>
     <row r="2447" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>94.78825910527758</v>
+        <v>94.78825910527756</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -20439,7 +20439,7 @@
         <v>2512</v>
       </c>
       <c r="B2512">
-        <v>46.03765025019475</v>
+        <v>46.03765025019474</v>
       </c>
     </row>
     <row r="2513" spans="1:2">
@@ -20583,7 +20583,7 @@
         <v>2530</v>
       </c>
       <c r="B2530">
-        <v>52.39641257602996</v>
+        <v>52.39641257602995</v>
       </c>
     </row>
     <row r="2531" spans="1:2">
@@ -20591,7 +20591,7 @@
         <v>2531</v>
       </c>
       <c r="B2531">
-        <v>59.86620720943033</v>
+        <v>59.86620720943032</v>
       </c>
     </row>
     <row r="2532" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>84.5671135609245</v>
+        <v>84.56711356092448</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20783,7 +20783,7 @@
         <v>2555</v>
       </c>
       <c r="B2555">
-        <v>7.392306650778309</v>
+        <v>7.392306650778308</v>
       </c>
     </row>
     <row r="2556" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>2.534991216660972</v>
+        <v>2.534991216660971</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>55.30865948720775</v>
+        <v>55.30865948720774</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>21.18540201433587</v>
+        <v>21.18540201433586</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22159,7 +22159,7 @@
         <v>2727</v>
       </c>
       <c r="B2727">
-        <v>59.20357359101703</v>
+        <v>59.20357359101702</v>
       </c>
     </row>
     <row r="2728" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>54.42944637122371</v>
+        <v>54.4294463712237</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22391,7 +22391,7 @@
         <v>2756</v>
       </c>
       <c r="B2756">
-        <v>19.7738253566235</v>
+        <v>19.77382535662349</v>
       </c>
     </row>
     <row r="2757" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>46.88052255738478</v>
+        <v>46.88052255738477</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22535,7 +22535,7 @@
         <v>2774</v>
       </c>
       <c r="B2774">
-        <v>81.38787893352622</v>
+        <v>81.38787893352621</v>
       </c>
     </row>
     <row r="2775" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>81.27270201533231</v>
+        <v>81.2727020153323</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>49.07181471345566</v>
+        <v>49.07181471345565</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>39.66335515931049</v>
+        <v>39.66335515931048</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>54.4704763166363</v>
+        <v>54.47047631663629</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>36.08642313244877</v>
+        <v>36.08642313244876</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>75.01827297926054</v>
+        <v>75.01827297926053</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>6.690108442145726</v>
+        <v>6.690108442145725</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>59.09660266190564</v>
+        <v>59.09660266190563</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>84.87571736463489</v>
+        <v>84.87571736463488</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>85.36455985712202</v>
+        <v>85.364559857122</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>81.06403543580544</v>
+        <v>81.06403543580542</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23567,7 +23567,7 @@
         <v>2903</v>
       </c>
       <c r="B2903">
-        <v>36.87361194229315</v>
+        <v>36.87361194229314</v>
       </c>
     </row>
     <row r="2904" spans="1:2">
@@ -23599,7 +23599,7 @@
         <v>2907</v>
       </c>
       <c r="B2907">
-        <v>83.62459710058961</v>
+        <v>83.6245971005896</v>
       </c>
     </row>
     <row r="2908" spans="1:2">
@@ -23687,7 +23687,7 @@
         <v>2918</v>
       </c>
       <c r="B2918">
-        <v>186.8462684143861</v>
+        <v>186.846268414386</v>
       </c>
     </row>
     <row r="2919" spans="1:2">
@@ -24039,7 +24039,7 @@
         <v>2962</v>
       </c>
       <c r="B2962">
-        <v>39.04175148630978</v>
+        <v>39.04175148630977</v>
       </c>
     </row>
     <row r="2963" spans="1:2">
@@ -24063,7 +24063,7 @@
         <v>2965</v>
       </c>
       <c r="B2965">
-        <v>55.40039072230875</v>
+        <v>55.40039072230874</v>
       </c>
     </row>
     <row r="2966" spans="1:2">
@@ -24327,7 +24327,7 @@
         <v>2998</v>
       </c>
       <c r="B2998">
-        <v>15.83251810739413</v>
+        <v>15.83251810739412</v>
       </c>
     </row>
     <row r="2999" spans="1:2">
@@ -24351,7 +24351,7 @@
         <v>3001</v>
       </c>
       <c r="B3001">
-        <v>7.394973597230128</v>
+        <v>7.394973597230127</v>
       </c>
     </row>
     <row r="3002" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>51.6857153072762</v>
+        <v>51.68571530727619</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24415,7 +24415,7 @@
         <v>3009</v>
       </c>
       <c r="B3009">
-        <v>69.3883783265761</v>
+        <v>69.38837832657609</v>
       </c>
     </row>
     <row r="3010" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>77.24033759439087</v>
+        <v>77.24033759439085</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24487,7 +24487,7 @@
         <v>3018</v>
       </c>
       <c r="B3018">
-        <v>67.80081251014759</v>
+        <v>67.80081251014758</v>
       </c>
     </row>
     <row r="3019" spans="1:2">
@@ -24519,7 +24519,7 @@
         <v>3022</v>
       </c>
       <c r="B3022">
-        <v>75.94613588766236</v>
+        <v>75.94613588766235</v>
       </c>
     </row>
     <row r="3023" spans="1:2">
@@ -24527,7 +24527,7 @@
         <v>3023</v>
       </c>
       <c r="B3023">
-        <v>87.16606753177331</v>
+        <v>87.16606753177329</v>
       </c>
     </row>
     <row r="3024" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>73.02128692182214</v>
+        <v>73.02128692182212</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>92.6886981843077</v>
+        <v>92.68869818430768</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>116.1962192663729</v>
+        <v>116.1962192663728</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25287,7 +25287,7 @@
         <v>3118</v>
       </c>
       <c r="B3118">
-        <v>54.28144549669973</v>
+        <v>54.28144549669972</v>
       </c>
     </row>
     <row r="3119" spans="1:2">
@@ -25327,7 +25327,7 @@
         <v>3123</v>
       </c>
       <c r="B3123">
-        <v>6.741395873911461</v>
+        <v>6.74139587391146</v>
       </c>
     </row>
     <row r="3124" spans="1:2">
@@ -25439,7 +25439,7 @@
         <v>3137</v>
       </c>
       <c r="B3137">
-        <v>86.11314241904353</v>
+        <v>86.11314241904351</v>
       </c>
     </row>
     <row r="3138" spans="1:2">
@@ -25479,7 +25479,7 @@
         <v>3142</v>
       </c>
       <c r="B3142">
-        <v>45.34219267545138</v>
+        <v>45.34219267545137</v>
       </c>
     </row>
     <row r="3143" spans="1:2">
@@ -25567,7 +25567,7 @@
         <v>3153</v>
       </c>
       <c r="B3153">
-        <v>76.17209365847026</v>
+        <v>76.17209365847025</v>
       </c>
     </row>
     <row r="3154" spans="1:2">
@@ -25855,7 +25855,7 @@
         <v>3189</v>
       </c>
       <c r="B3189">
-        <v>74.62086865083576</v>
+        <v>74.62086865083575</v>
       </c>
     </row>
     <row r="3190" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>7.38108202999758</v>
+        <v>7.381082029997579</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>45.31376478470123</v>
+        <v>45.31376478470122</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26039,7 +26039,7 @@
         <v>3212</v>
       </c>
       <c r="B3212">
-        <v>19.68874683410011</v>
+        <v>19.6887468341001</v>
       </c>
     </row>
     <row r="3213" spans="1:2">
@@ -26087,7 +26087,7 @@
         <v>3218</v>
       </c>
       <c r="B3218">
-        <v>6.617309596142248</v>
+        <v>6.617309596142247</v>
       </c>
     </row>
     <row r="3219" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>35.17936826779191</v>
+        <v>35.1793682677919</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>85.29832580238455</v>
+        <v>85.29832580238454</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>67.2609756569334</v>
+        <v>67.26097565693338</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26327,7 +26327,7 @@
         <v>3248</v>
       </c>
       <c r="B3248">
-        <v>63.30774041643051</v>
+        <v>63.3077404164305</v>
       </c>
     </row>
     <row r="3249" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>113.5783035993227</v>
+        <v>113.5783035993226</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26503,7 +26503,7 @@
         <v>3270</v>
       </c>
       <c r="B3270">
-        <v>74.76124967835455</v>
+        <v>74.76124967835453</v>
       </c>
     </row>
     <row r="3271" spans="1:2">
@@ -26759,7 +26759,7 @@
         <v>3302</v>
       </c>
       <c r="B3302">
-        <v>6.66384927708167</v>
+        <v>6.663849277081669</v>
       </c>
     </row>
     <row r="3303" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>15.98764060815758</v>
+        <v>15.98764060815757</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>29.73557372465742</v>
+        <v>29.73557372465741</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27135,7 +27135,7 @@
         <v>3349</v>
       </c>
       <c r="B3349">
-        <v>37.56643187768857</v>
+        <v>37.56643187768856</v>
       </c>
     </row>
     <row r="3350" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>37.56906951703652</v>
+        <v>37.56906951703651</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>45.18920959327016</v>
+        <v>45.18920959327015</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>91.44607698038359</v>
+        <v>91.44607698038358</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27791,7 +27791,7 @@
         <v>3431</v>
       </c>
       <c r="B3431">
-        <v>15.78876260132199</v>
+        <v>15.78876260132198</v>
       </c>
     </row>
     <row r="3432" spans="1:2">
@@ -27855,7 +27855,7 @@
         <v>3439</v>
       </c>
       <c r="B3439">
-        <v>58.83166644295578</v>
+        <v>58.83166644295577</v>
       </c>
     </row>
     <row r="3440" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>107.0579712098735</v>
+        <v>107.0579712098734</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27983,7 +27983,7 @@
         <v>3455</v>
       </c>
       <c r="B3455">
-        <v>109.2999646556328</v>
+        <v>109.2999646556327</v>
       </c>
     </row>
     <row r="3456" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>164.1077657377683</v>
+        <v>164.1077657377682</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>141.1705608969381</v>
+        <v>141.170560896938</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28327,7 +28327,7 @@
         <v>3498</v>
       </c>
       <c r="B3498">
-        <v>137.2826804980567</v>
+        <v>137.2826804980566</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -28431,7 +28431,7 @@
         <v>3511</v>
       </c>
       <c r="B3511">
-        <v>99.47299965827918</v>
+        <v>99.47299965827916</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -28599,7 +28599,7 @@
         <v>3532</v>
       </c>
       <c r="B3532">
-        <v>115.4623693855649</v>
+        <v>115.4623693855648</v>
       </c>
     </row>
     <row r="3533" spans="1:2">
@@ -28983,7 +28983,7 @@
         <v>3580</v>
       </c>
       <c r="B3580">
-        <v>52.45268221545294</v>
+        <v>52.45268221545293</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
@@ -29135,7 +29135,7 @@
         <v>3599</v>
       </c>
       <c r="B3599">
-        <v>112.0838464518769</v>
+        <v>112.0838464518768</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>192.2542203694923</v>
+        <v>192.2542203694922</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>163.5119230090659</v>
+        <v>163.5119230090658</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29519,7 +29519,7 @@
         <v>3647</v>
       </c>
       <c r="B3647">
-        <v>52.93419793197353</v>
+        <v>52.93419793197352</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -29535,7 +29535,7 @@
         <v>3649</v>
       </c>
       <c r="B3649">
-        <v>33.47516017797619</v>
+        <v>33.47516017797618</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -29599,7 +29599,7 @@
         <v>3657</v>
       </c>
       <c r="B3657">
-        <v>56.23066097483634</v>
+        <v>56.23066097483633</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>62.67148319149673</v>
+        <v>62.67148319149672</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>75.44410519843548</v>
+        <v>75.44410519843547</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29695,7 +29695,7 @@
         <v>3669</v>
       </c>
       <c r="B3669">
-        <v>35.36019309864596</v>
+        <v>35.36019309864595</v>
       </c>
     </row>
     <row r="3670" spans="1:2">
@@ -29703,7 +29703,7 @@
         <v>3670</v>
       </c>
       <c r="B3670">
-        <v>33.15395431960335</v>
+        <v>33.15395431960334</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>53.83861515728244</v>
+        <v>53.83861515728243</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29839,7 +29839,7 @@
         <v>3687</v>
       </c>
       <c r="B3687">
-        <v>76.44289129819335</v>
+        <v>76.44289129819333</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -29863,7 +29863,7 @@
         <v>3690</v>
       </c>
       <c r="B3690">
-        <v>69.43937268730318</v>
+        <v>69.43937268730316</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -30103,7 +30103,7 @@
         <v>3720</v>
       </c>
       <c r="B3720">
-        <v>80.8216656868325</v>
+        <v>80.82166568683249</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -30111,7 +30111,7 @@
         <v>3721</v>
       </c>
       <c r="B3721">
-        <v>70.99851061298153</v>
+        <v>70.99851061298152</v>
       </c>
     </row>
     <row r="3722" spans="1:2">
@@ -30143,7 +30143,7 @@
         <v>3725</v>
       </c>
       <c r="B3725">
-        <v>72.83254917292423</v>
+        <v>72.83254917292422</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>99.40998938496701</v>
+        <v>99.40998938496698</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30279,7 +30279,7 @@
         <v>3742</v>
       </c>
       <c r="B3742">
-        <v>91.44607698038359</v>
+        <v>91.44607698038358</v>
       </c>
     </row>
     <row r="3743" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>169.3625001538624</v>
+        <v>169.3625001538623</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>193.2514238856414</v>
+        <v>193.2514238856413</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>194.8031764211455</v>
+        <v>194.8031764211454</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>140.3885008302703</v>
+        <v>140.3885008302702</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30847,7 +30847,7 @@
         <v>3813</v>
       </c>
       <c r="B3813">
-        <v>62.84175746495897</v>
+        <v>62.84175746495896</v>
       </c>
     </row>
     <row r="3814" spans="1:2">
@@ -30943,7 +30943,7 @@
         <v>3825</v>
       </c>
       <c r="B3825">
-        <v>60.02915470692604</v>
+        <v>60.02915470692603</v>
       </c>
     </row>
     <row r="3826" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>69.23744674166551</v>
+        <v>69.23744674166549</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -30983,7 +30983,7 @@
         <v>3830</v>
       </c>
       <c r="B3830">
-        <v>79.07642765160419</v>
+        <v>79.07642765160418</v>
       </c>
     </row>
     <row r="3831" spans="1:2">
@@ -31055,7 +31055,7 @@
         <v>3839</v>
       </c>
       <c r="B3839">
-        <v>39.31401448122617</v>
+        <v>39.31401448122616</v>
       </c>
     </row>
     <row r="3840" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>7.448546983097422</v>
+        <v>7.448546983097421</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>80.0195302540164</v>
+        <v>80.01953025401639</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31159,7 +31159,7 @@
         <v>3852</v>
       </c>
       <c r="B3852">
-        <v>84.44724750611201</v>
+        <v>84.44724750611199</v>
       </c>
     </row>
     <row r="3853" spans="1:2">
@@ -31511,7 +31511,7 @@
         <v>3896</v>
       </c>
       <c r="B3896">
-        <v>145.8910561166564</v>
+        <v>145.8910561166563</v>
       </c>
     </row>
     <row r="3897" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>153.7025715811359</v>
+        <v>153.7025715811358</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>134.090843815996</v>
+        <v>134.0908438159959</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>160.9411331650325</v>
+        <v>160.9411331650324</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31879,7 +31879,7 @@
         <v>3942</v>
       </c>
       <c r="B3942">
-        <v>134.9329541384855</v>
+        <v>134.9329541384854</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>204.1365218680818</v>
+        <v>204.1365218680817</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31975,7 +31975,7 @@
         <v>3954</v>
       </c>
       <c r="B3954">
-        <v>219.6436432012502</v>
+        <v>219.6436432012501</v>
       </c>
     </row>
     <row r="3955" spans="1:2">
@@ -32023,7 +32023,7 @@
         <v>3960</v>
       </c>
       <c r="B3960">
-        <v>170.1201180959058</v>
+        <v>170.1201180959057</v>
       </c>
     </row>
     <row r="3961" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>253.9903087268936</v>
+        <v>253.9903087268935</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>197.9080296189315</v>
+        <v>197.9080296189314</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>188.6095010113882</v>
+        <v>188.6095010113881</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>161.2419998933222</v>
+        <v>161.2419998933221</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>141.3420953758666</v>
+        <v>141.3420953758665</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32415,7 +32415,7 @@
         <v>4009</v>
       </c>
       <c r="B4009">
-        <v>133.283031597161</v>
+        <v>133.2830315971609</v>
       </c>
     </row>
     <row r="4010" spans="1:2">
@@ -32839,7 +32839,7 @@
         <v>4062</v>
       </c>
       <c r="B4062">
-        <v>152.1070342324558</v>
+        <v>152.1070342324557</v>
       </c>
     </row>
     <row r="4063" spans="1:2">
@@ -33143,7 +33143,7 @@
         <v>4100</v>
       </c>
       <c r="B4100">
-        <v>144.2626361974385</v>
+        <v>144.2626361974384</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
@@ -33191,7 +33191,7 @@
         <v>4106</v>
       </c>
       <c r="B4106">
-        <v>117.7896552957058</v>
+        <v>117.7896552957057</v>
       </c>
     </row>
     <row r="4107" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>204.3446023055313</v>
+        <v>204.3446023055312</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>226.3200945329943</v>
+        <v>226.3200945329942</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33375,7 +33375,7 @@
         <v>4129</v>
       </c>
       <c r="B4129">
-        <v>136.3387866038401</v>
+        <v>136.33878660384</v>
       </c>
     </row>
     <row r="4130" spans="1:2">
@@ -33831,7 +33831,7 @@
         <v>4186</v>
       </c>
       <c r="B4186">
-        <v>174.8363344784596</v>
+        <v>174.8363344784595</v>
       </c>
     </row>
     <row r="4187" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>190.6771464962479</v>
+        <v>190.6771464962478</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>189.7334870588622</v>
+        <v>189.7334870588621</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -33959,7 +33959,7 @@
         <v>4202</v>
       </c>
       <c r="B4202">
-        <v>145.287769383572</v>
+        <v>145.2877693835719</v>
       </c>
     </row>
     <row r="4203" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>91.11092094057048</v>
+        <v>91.11092094057047</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34135,7 +34135,7 @@
         <v>4224</v>
       </c>
       <c r="B4224">
-        <v>75.56338511117065</v>
+        <v>75.56338511117063</v>
       </c>
     </row>
     <row r="4225" spans="1:2">
@@ -34143,7 +34143,7 @@
         <v>4225</v>
       </c>
       <c r="B4225">
-        <v>77.27081698241165</v>
+        <v>77.27081698241163</v>
       </c>
     </row>
     <row r="4226" spans="1:2">
@@ -34151,7 +34151,7 @@
         <v>4226</v>
       </c>
       <c r="B4226">
-        <v>77.80274091758199</v>
+        <v>77.80274091758197</v>
       </c>
     </row>
     <row r="4227" spans="1:2">
@@ -34159,7 +34159,7 @@
         <v>4227</v>
       </c>
       <c r="B4227">
-        <v>77.76229711424672</v>
+        <v>77.76229711424671</v>
       </c>
     </row>
     <row r="4228" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>141.327559052349</v>
+        <v>141.3275590523489</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -34575,7 +34575,7 @@
         <v>4279</v>
       </c>
       <c r="B4279">
-        <v>138.7529006706052</v>
+        <v>138.7529006706051</v>
       </c>
     </row>
     <row r="4280" spans="1:2">
@@ -34839,7 +34839,7 @@
         <v>4312</v>
       </c>
       <c r="B4312">
-        <v>194.1960797645585</v>
+        <v>194.1960797645584</v>
       </c>
     </row>
     <row r="4313" spans="1:2">
@@ -34903,7 +34903,7 @@
         <v>4320</v>
       </c>
       <c r="B4320">
-        <v>105.837330333849</v>
+        <v>105.8373303338489</v>
       </c>
     </row>
     <row r="4321" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>112.5911524197997</v>
+        <v>112.5911524197996</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>197.0709015040992</v>
+        <v>197.0709015040991</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>108.5045698567059</v>
+        <v>108.5045698567058</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>235.3220352494123</v>
+        <v>235.3220352494122</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>230.0920067218774</v>
+        <v>230.0920067218773</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35439,7 +35439,7 @@
         <v>4387</v>
       </c>
       <c r="B4387">
-        <v>144.5092847835759</v>
+        <v>144.5092847835758</v>
       </c>
     </row>
     <row r="4388" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>157.4131146945233</v>
+        <v>157.4131146945232</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35679,7 +35679,7 @@
         <v>4417</v>
       </c>
       <c r="B4417">
-        <v>150.7577937846667</v>
+        <v>150.7577937846666</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>206.5374184310032</v>
+        <v>206.5374184310031</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -35999,7 +35999,7 @@
         <v>4457</v>
       </c>
       <c r="B4457">
-        <v>210.5853449240976</v>
+        <v>210.5853449240975</v>
       </c>
     </row>
     <row r="4458" spans="1:2">
@@ -36015,7 +36015,7 @@
         <v>4459</v>
       </c>
       <c r="B4459">
-        <v>197.8397440669234</v>
+        <v>197.8397440669233</v>
       </c>
     </row>
     <row r="4460" spans="1:2">
@@ -36063,7 +36063,7 @@
         <v>4465</v>
       </c>
       <c r="B4465">
-        <v>140.1133071249673</v>
+        <v>140.1133071249672</v>
       </c>
     </row>
     <row r="4466" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>232.4211301874307</v>
+        <v>232.4211301874306</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36455,7 +36455,7 @@
         <v>4514</v>
       </c>
       <c r="B4514">
-        <v>157.1951577630709</v>
+        <v>157.1951577630708</v>
       </c>
     </row>
     <row r="4515" spans="1:2">
@@ -36471,7 +36471,7 @@
         <v>4516</v>
       </c>
       <c r="B4516">
-        <v>143.7542165595688</v>
+        <v>143.7542165595687</v>
       </c>
     </row>
     <row r="4517" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>213.7802002378565</v>
+        <v>213.7802002378564</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>177.0076684967977</v>
+        <v>177.0076684967976</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>162.7370724899492</v>
+        <v>162.7370724899491</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37551,7 +37551,7 @@
         <v>4651</v>
       </c>
       <c r="B4651">
-        <v>162.0829086245532</v>
+        <v>162.0829086245531</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37775,7 +37775,7 @@
         <v>4679</v>
       </c>
       <c r="B4679">
-        <v>116.8307415107578</v>
+        <v>116.8307415107577</v>
       </c>
     </row>
     <row r="4680" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>104.8525647525807</v>
+        <v>104.8525647525806</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>235.0555750610614</v>
+        <v>235.0555750610613</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38695,7 +38695,7 @@
         <v>4794</v>
       </c>
       <c r="B4794">
-        <v>219.9644973743766</v>
+        <v>219.9644973743765</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38783,7 +38783,7 @@
         <v>4805</v>
       </c>
       <c r="B4805">
-        <v>172.6219776316461</v>
+        <v>172.621977631646</v>
       </c>
     </row>
     <row r="4806" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>261.7493644754527</v>
+        <v>261.7493644754526</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38975,7 +38975,7 @@
         <v>4829</v>
       </c>
       <c r="B4829">
-        <v>162.7829967217074</v>
+        <v>162.7829967217073</v>
       </c>
     </row>
     <row r="4830" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>204.297828167761</v>
+        <v>204.2978281677609</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>197.3088165732845</v>
+        <v>197.3088165732844</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39463,7 +39463,7 @@
         <v>4890</v>
       </c>
       <c r="B4890">
-        <v>240.2737049044267</v>
+        <v>240.2737049044266</v>
       </c>
     </row>
     <row r="4891" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>168.9522593139442</v>
+        <v>168.9522593139441</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>234.1388488521287</v>
+        <v>234.1388488521286</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -40031,7 +40031,7 @@
         <v>4961</v>
       </c>
       <c r="B4961">
-        <v>204.4038026553409</v>
+        <v>204.4038026553408</v>
       </c>
     </row>
     <row r="4962" spans="1:2">
@@ -40111,7 +40111,7 @@
         <v>4971</v>
       </c>
       <c r="B4971">
-        <v>137.0915981808495</v>
+        <v>137.0915981808494</v>
       </c>
     </row>
     <row r="4972" spans="1:2">
@@ -40287,7 +40287,7 @@
         <v>4993</v>
       </c>
       <c r="B4993">
-        <v>132.9238349400465</v>
+        <v>132.9238349400464</v>
       </c>
     </row>
     <row r="4994" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>127.356129961766</v>
+        <v>127.3561299617659</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -41063,7 +41063,7 @@
         <v>5090</v>
       </c>
       <c r="B5090">
-        <v>128.3692530967352</v>
+        <v>128.3692530967351</v>
       </c>
     </row>
     <row r="5091" spans="1:2">
@@ -41183,7 +41183,7 @@
         <v>5105</v>
       </c>
       <c r="B5105">
-        <v>202.7370490442661</v>
+        <v>202.737049044266</v>
       </c>
     </row>
     <row r="5106" spans="1:2">
@@ -41303,7 +41303,7 @@
         <v>5120</v>
       </c>
       <c r="B5120">
-        <v>219.1922258804001</v>
+        <v>219.1922258804</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>192.5272746562131</v>
+        <v>192.527274656213</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41583,7 +41583,7 @@
         <v>5155</v>
       </c>
       <c r="B5155">
-        <v>191.8869437438419</v>
+        <v>191.8869437438418</v>
       </c>
     </row>
     <row r="5156" spans="1:2">
@@ -41711,7 +41711,7 @@
         <v>5171</v>
       </c>
       <c r="B5171">
-        <v>176.8729144332212</v>
+        <v>176.8729144332211</v>
       </c>
     </row>
     <row r="5172" spans="1:2">
@@ -41879,7 +41879,7 @@
         <v>5192</v>
       </c>
       <c r="B5192">
-        <v>166.7465480627712</v>
+        <v>166.7465480627711</v>
       </c>
     </row>
     <row r="5193" spans="1:2">
@@ -41943,7 +41943,7 @@
         <v>5200</v>
       </c>
       <c r="B5200">
-        <v>134.3626672043544</v>
+        <v>134.3626672043543</v>
       </c>
     </row>
     <row r="5201" spans="1:2">
@@ -42079,7 +42079,7 @@
         <v>5217</v>
       </c>
       <c r="B5217">
-        <v>57.28307907466923</v>
+        <v>57.28307907466922</v>
       </c>
     </row>
     <row r="5218" spans="1:2">
@@ -42095,7 +42095,7 @@
         <v>5219</v>
       </c>
       <c r="B5219">
-        <v>81.2861686295588</v>
+        <v>81.28616862955879</v>
       </c>
     </row>
     <row r="5220" spans="1:2">
@@ -42199,7 +42199,7 @@
         <v>5232</v>
       </c>
       <c r="B5232">
-        <v>28.95579961209118</v>
+        <v>28.95579961209117</v>
       </c>
     </row>
     <row r="5233" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>6.696380162373079</v>
+        <v>6.696380162373078</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42375,7 +42375,7 @@
         <v>5254</v>
       </c>
       <c r="B5254">
-        <v>85.78453065552372</v>
+        <v>85.78453065552371</v>
       </c>
     </row>
     <row r="5255" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>54.66624777046208</v>
+        <v>54.66624777046207</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42599,7 +42599,7 @@
         <v>5282</v>
       </c>
       <c r="B5282">
-        <v>73.57108819035082</v>
+        <v>73.57108819035081</v>
       </c>
     </row>
     <row r="5283" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>82.32043097854663</v>
+        <v>82.32043097854661</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>152.2966218873658</v>
+        <v>152.2966218873657</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>162.4212591386877</v>
+        <v>162.4212591386876</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43271,7 +43271,7 @@
         <v>5366</v>
       </c>
       <c r="B5366">
-        <v>227.4990314002173</v>
+        <v>227.4990314002172</v>
       </c>
     </row>
     <row r="5367" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>156.3010859454267</v>
+        <v>156.3010859454266</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43535,7 +43535,7 @@
         <v>5399</v>
       </c>
       <c r="B5399">
-        <v>175.1188256526253</v>
+        <v>175.1188256526252</v>
       </c>
     </row>
     <row r="5400" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>218.1481603051691</v>
+        <v>218.148160305169</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>230.6855928035821</v>
+        <v>230.685592803582</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43671,7 +43671,7 @@
         <v>5416</v>
       </c>
       <c r="B5416">
-        <v>245.706362748092</v>
+        <v>245.7063627480919</v>
       </c>
     </row>
     <row r="5417" spans="1:2">
@@ -43775,7 +43775,7 @@
         <v>5429</v>
       </c>
       <c r="B5429">
-        <v>76.39279959626535</v>
+        <v>76.39279959626533</v>
       </c>
     </row>
     <row r="5430" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>129.7169344065986</v>
+        <v>129.7169344065985</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -44119,7 +44119,7 @@
         <v>5472</v>
       </c>
       <c r="B5472">
-        <v>119.4821317518439</v>
+        <v>119.4821317518438</v>
       </c>
     </row>
     <row r="5473" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>177.5041894504977</v>
+        <v>177.5041894504976</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44231,7 +44231,7 @@
         <v>5486</v>
       </c>
       <c r="B5486">
-        <v>227.1340114215646</v>
+        <v>227.1340114215645</v>
       </c>
     </row>
     <row r="5487" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>146.4411211491199</v>
+        <v>146.4411211491198</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>197.1359339675782</v>
+        <v>197.1359339675781</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>203.4583554846194</v>
+        <v>203.4583554846193</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>158.2324827044127</v>
+        <v>158.2324827044126</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -45047,7 +45047,7 @@
         <v>5588</v>
       </c>
       <c r="B5588">
-        <v>150.2866820900186</v>
+        <v>150.2866820900185</v>
       </c>
     </row>
     <row r="5589" spans="1:2">
@@ -45239,7 +45239,7 @@
         <v>5612</v>
       </c>
       <c r="B5612">
-        <v>99.15113145935896</v>
+        <v>99.15113145935895</v>
       </c>
     </row>
     <row r="5613" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>92.56737263572268</v>
+        <v>92.56737263572266</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>21.40467776546229</v>
+        <v>21.40467776546228</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45647,7 +45647,7 @@
         <v>5663</v>
       </c>
       <c r="B5663">
-        <v>85.11955246880113</v>
+        <v>85.11955246880112</v>
       </c>
     </row>
     <row r="5664" spans="1:2">
@@ -45679,7 +45679,7 @@
         <v>5667</v>
       </c>
       <c r="B5667">
-        <v>63.41031527996198</v>
+        <v>63.41031527996197</v>
       </c>
     </row>
     <row r="5668" spans="1:2">
@@ -45695,7 +45695,7 @@
         <v>5669</v>
       </c>
       <c r="B5669">
-        <v>49.16589051686595</v>
+        <v>49.16589051686594</v>
       </c>
     </row>
     <row r="5670" spans="1:2">
@@ -45855,7 +45855,7 @@
         <v>5689</v>
       </c>
       <c r="B5689">
-        <v>102.0388366017593</v>
+        <v>102.0388366017592</v>
       </c>
     </row>
     <row r="5690" spans="1:2">
@@ -45863,7 +45863,7 @@
         <v>5690</v>
       </c>
       <c r="B5690">
-        <v>158.4957484184422</v>
+        <v>158.4957484184421</v>
       </c>
     </row>
     <row r="5691" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>196.5044538005746</v>
+        <v>196.5044538005745</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46231,7 +46231,7 @@
         <v>5736</v>
       </c>
       <c r="B5736">
-        <v>142.2955140788397</v>
+        <v>142.2955140788396</v>
       </c>
     </row>
     <row r="5737" spans="1:2">
@@ -46303,7 +46303,7 @@
         <v>5745</v>
       </c>
       <c r="B5745">
-        <v>177.3076853190753</v>
+        <v>177.3076853190752</v>
       </c>
     </row>
     <row r="5746" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>177.052479058609</v>
+        <v>177.0524790586089</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46591,7 +46591,7 @@
         <v>5781</v>
       </c>
       <c r="B5781">
-        <v>86.62918483462882</v>
+        <v>86.6291848346288</v>
       </c>
     </row>
     <row r="5782" spans="1:2">
@@ -46607,7 +46607,7 @@
         <v>5783</v>
       </c>
       <c r="B5783">
-        <v>70.94224097355855</v>
+        <v>70.94224097355854</v>
       </c>
     </row>
     <row r="5784" spans="1:2">
@@ -46639,7 +46639,7 @@
         <v>5787</v>
       </c>
       <c r="B5787">
-        <v>50.88826901107868</v>
+        <v>50.88826901107867</v>
       </c>
     </row>
     <row r="5788" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>145.8541877799928</v>
+        <v>145.8541877799927</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -47015,7 +47015,7 @@
         <v>5834</v>
       </c>
       <c r="B5834">
-        <v>130.8945407313061</v>
+        <v>130.894540731306</v>
       </c>
     </row>
     <row r="5835" spans="1:2">
@@ -47071,7 +47071,7 @@
         <v>5841</v>
       </c>
       <c r="B5841">
-        <v>136.9298053832461</v>
+        <v>136.929805383246</v>
       </c>
     </row>
     <row r="5842" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>168.1441452319394</v>
+        <v>168.1441452319393</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>123.8614922825604</v>
+        <v>123.8614922825603</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47279,7 +47279,7 @@
         <v>5867</v>
       </c>
       <c r="B5867">
-        <v>185.5662513459288</v>
+        <v>185.5662513459287</v>
       </c>
     </row>
     <row r="5868" spans="1:2">
@@ -47311,7 +47311,7 @@
         <v>5871</v>
       </c>
       <c r="B5871">
-        <v>195.1493226249084</v>
+        <v>195.1493226249083</v>
       </c>
     </row>
     <row r="5872" spans="1:2">
@@ -47351,7 +47351,7 @@
         <v>5876</v>
       </c>
       <c r="B5876">
-        <v>176.2666090684386</v>
+        <v>176.2666090684385</v>
       </c>
     </row>
     <row r="5877" spans="1:2">
@@ -47359,7 +47359,7 @@
         <v>5877</v>
       </c>
       <c r="B5877">
-        <v>158.1847121251109</v>
+        <v>158.1847121251108</v>
       </c>
     </row>
     <row r="5878" spans="1:2">
@@ -47535,7 +47535,7 @@
         <v>5899</v>
       </c>
       <c r="B5899">
-        <v>54.22576199935408</v>
+        <v>54.22576199935407</v>
       </c>
     </row>
     <row r="5900" spans="1:2">
@@ -47551,7 +47551,7 @@
         <v>5901</v>
       </c>
       <c r="B5901">
-        <v>35.73239331774587</v>
+        <v>35.73239331774586</v>
       </c>
     </row>
     <row r="5902" spans="1:2">
@@ -47599,7 +47599,7 @@
         <v>5907</v>
       </c>
       <c r="B5907">
-        <v>16.15255168161232</v>
+        <v>16.15255168161231</v>
       </c>
     </row>
     <row r="5908" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>6.656786265049932</v>
+        <v>6.656786265049931</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>7.393068635478829</v>
+        <v>7.393068635478828</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47711,7 +47711,7 @@
         <v>5921</v>
       </c>
       <c r="B5921">
-        <v>86.56738201399591</v>
+        <v>86.5673820139959</v>
       </c>
     </row>
     <row r="5922" spans="1:2">
@@ -47815,7 +47815,7 @@
         <v>5934</v>
       </c>
       <c r="B5934">
-        <v>7.293131411295311</v>
+        <v>7.29313141129531</v>
       </c>
     </row>
     <row r="5935" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>65.82375528333816</v>
+        <v>65.82375528333814</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>75.96401322102071</v>
+        <v>75.96401322102069</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48031,7 +48031,7 @@
         <v>5961</v>
       </c>
       <c r="B5961">
-        <v>90.03933599480914</v>
+        <v>90.03933599480912</v>
       </c>
     </row>
     <row r="5962" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>112.0842860584349</v>
+        <v>112.0842860584348</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48175,7 +48175,7 @@
         <v>5979</v>
       </c>
       <c r="B5979">
-        <v>60.2076349694708</v>
+        <v>60.20763496947079</v>
       </c>
     </row>
     <row r="5980" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>154.0253600231175</v>
+        <v>154.0253600231174</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>169.7574426855624</v>
+        <v>169.7574426855623</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48279,7 +48279,7 @@
         <v>5992</v>
       </c>
       <c r="B5992">
-        <v>165.6883271563728</v>
+        <v>165.6883271563727</v>
       </c>
     </row>
     <row r="5993" spans="1:2">
@@ -48343,7 +48343,7 @@
         <v>6000</v>
       </c>
       <c r="B6000">
-        <v>121.5927033517363</v>
+        <v>121.5927033517362</v>
       </c>
     </row>
     <row r="6001" spans="1:2">
@@ -48407,7 +48407,7 @@
         <v>6008</v>
       </c>
       <c r="B6008">
-        <v>110.6266972476527</v>
+        <v>110.6266972476526</v>
       </c>
     </row>
     <row r="6009" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>125.4064748770714</v>
+        <v>125.4064748770713</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -49319,7 +49319,7 @@
         <v>6122</v>
       </c>
       <c r="B6122">
-        <v>86.91578486475652</v>
+        <v>86.9157848647565</v>
       </c>
     </row>
     <row r="6123" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>57.20365682319201</v>
+        <v>57.203656823192</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>36.99582256541493</v>
+        <v>36.99582256541492</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -49519,7 +49519,7 @@
         <v>6147</v>
       </c>
       <c r="B6147">
-        <v>80.92365440828665</v>
+        <v>80.92365440828664</v>
       </c>
     </row>
     <row r="6148" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>90.58834597153343</v>
+        <v>90.58834597153341</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>98.14890470560722</v>
+        <v>98.14890470560721</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49863,7 +49863,7 @@
         <v>6190</v>
       </c>
       <c r="B6190">
-        <v>98.89535664107768</v>
+        <v>98.89535664107764</v>
       </c>
     </row>
     <row r="6191" spans="1:2">
@@ -49871,7 +49871,7 @@
         <v>6191</v>
       </c>
       <c r="B6191">
-        <v>88.75304720612449</v>
+        <v>88.75304720612448</v>
       </c>
     </row>
     <row r="6192" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>106.6380004114718</v>
+        <v>106.6380004114717</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -50103,7 +50103,7 @@
         <v>6220</v>
       </c>
       <c r="B6220">
-        <v>144.4602833059117</v>
+        <v>144.4602833059116</v>
       </c>
     </row>
     <row r="6221" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>165.5875986403849</v>
+        <v>165.5875986403848</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>116.1854928663579</v>
+        <v>116.1854928663578</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50415,7 +50415,7 @@
         <v>6259</v>
       </c>
       <c r="B6259">
-        <v>77.42148187267706</v>
+        <v>77.42148187267705</v>
       </c>
     </row>
     <row r="6260" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>44.93687542898274</v>
+        <v>44.93687542898273</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50679,7 +50679,7 @@
         <v>6292</v>
       </c>
       <c r="B6292">
-        <v>108.2733368072021</v>
+        <v>108.273336807202</v>
       </c>
     </row>
     <row r="6293" spans="1:2">
@@ -50807,7 +50807,7 @@
         <v>6308</v>
       </c>
       <c r="B6308">
-        <v>88.62896092835528</v>
+        <v>88.62896092835527</v>
       </c>
     </row>
     <row r="6309" spans="1:2">
@@ -50919,7 +50919,7 @@
         <v>6322</v>
       </c>
       <c r="B6322">
-        <v>55.9496527401263</v>
+        <v>55.94965274012629</v>
       </c>
     </row>
     <row r="6323" spans="1:2">
@@ -51159,7 +51159,7 @@
         <v>6352</v>
       </c>
       <c r="B6352">
-        <v>69.27056376903424</v>
+        <v>69.27056376903423</v>
       </c>
     </row>
     <row r="6353" spans="1:2">
@@ -51231,7 +51231,7 @@
         <v>6361</v>
       </c>
       <c r="B6361">
-        <v>58.53918154637176</v>
+        <v>58.53918154637175</v>
       </c>
     </row>
     <row r="6362" spans="1:2">
@@ -51295,7 +51295,7 @@
         <v>6369</v>
       </c>
       <c r="B6369">
-        <v>62.04460423980011</v>
+        <v>62.0446042398001</v>
       </c>
     </row>
     <row r="6370" spans="1:2">
@@ -51327,7 +51327,7 @@
         <v>6373</v>
       </c>
       <c r="B6373">
-        <v>71.72444757574569</v>
+        <v>71.72444757574567</v>
       </c>
     </row>
     <row r="6374" spans="1:2">
@@ -51431,7 +51431,7 @@
         <v>6386</v>
       </c>
       <c r="B6386">
-        <v>28.29096796088792</v>
+        <v>28.29096796088791</v>
       </c>
     </row>
     <row r="6387" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>59.32607728517747</v>
+        <v>59.32607728517746</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>47.77526843841787</v>
+        <v>47.77526843841786</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51695,7 +51695,7 @@
         <v>6419</v>
       </c>
       <c r="B6419">
-        <v>55.38515102829836</v>
+        <v>55.38515102829835</v>
       </c>
     </row>
     <row r="6420" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>97.42296774284308</v>
+        <v>97.42296774284306</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51735,7 +51735,7 @@
         <v>6424</v>
       </c>
       <c r="B6424">
-        <v>99.87626540747721</v>
+        <v>99.87626540747718</v>
       </c>
     </row>
     <row r="6425" spans="1:2">
@@ -51775,7 +51775,7 @@
         <v>6429</v>
       </c>
       <c r="B6429">
-        <v>49.27813672467325</v>
+        <v>49.27813672467324</v>
       </c>
     </row>
     <row r="6430" spans="1:2">
@@ -51815,7 +51815,7 @@
         <v>6434</v>
       </c>
       <c r="B6434">
-        <v>39.78058357477503</v>
+        <v>39.78058357477502</v>
       </c>
     </row>
     <row r="6435" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>51.17870241039207</v>
+        <v>51.17870241039206</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -51879,7 +51879,7 @@
         <v>6442</v>
       </c>
       <c r="B6442">
-        <v>89.08890661643039</v>
+        <v>89.08890661643038</v>
       </c>
     </row>
     <row r="6443" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>83.46106346101658</v>
+        <v>83.46106346101656</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>81.69062131646339</v>
+        <v>81.69062131646338</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>81.7011718738552</v>
+        <v>81.70117187385519</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52239,7 +52239,7 @@
         <v>6487</v>
       </c>
       <c r="B6487">
-        <v>125.2503559347765</v>
+        <v>125.2503559347764</v>
       </c>
     </row>
     <row r="6488" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>61.83798915754386</v>
+        <v>61.83798915754385</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52543,7 +52543,7 @@
         <v>6525</v>
       </c>
       <c r="B6525">
-        <v>58.81173761232681</v>
+        <v>58.8117376123268</v>
       </c>
     </row>
     <row r="6526" spans="1:2">
@@ -52575,7 +52575,7 @@
         <v>6529</v>
       </c>
       <c r="B6529">
-        <v>59.17338727403491</v>
+        <v>59.1733872740349</v>
       </c>
     </row>
     <row r="6530" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>54.17212999927905</v>
+        <v>54.17212999927904</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52711,7 +52711,7 @@
         <v>6546</v>
       </c>
       <c r="B6546">
-        <v>57.93281756738144</v>
+        <v>57.93281756738143</v>
       </c>
     </row>
     <row r="6547" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>53.40018088344507</v>
+        <v>53.40018088344506</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>55.36698062390136</v>
+        <v>55.36698062390135</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>68.78963419459097</v>
+        <v>68.78963419459096</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>123.6408097904484</v>
+        <v>123.6408097904483</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53839,7 +53839,7 @@
         <v>6687</v>
       </c>
       <c r="B6687">
-        <v>37.63530357177398</v>
+        <v>37.63530357177397</v>
       </c>
     </row>
     <row r="6688" spans="1:2">
@@ -53855,7 +53855,7 @@
         <v>6689</v>
       </c>
       <c r="B6689">
-        <v>37.59691126570935</v>
+        <v>37.59691126570934</v>
       </c>
     </row>
     <row r="6690" spans="1:2">
@@ -53871,7 +53871,7 @@
         <v>6691</v>
       </c>
       <c r="B6691">
-        <v>20.51591053361789</v>
+        <v>20.51591053361788</v>
       </c>
     </row>
     <row r="6692" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>29.78774036953914</v>
+        <v>29.78774036953913</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54023,7 +54023,7 @@
         <v>6710</v>
       </c>
       <c r="B6710">
-        <v>28.98038827223487</v>
+        <v>28.98038827223486</v>
       </c>
     </row>
     <row r="6711" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>56.18728646111446</v>
+        <v>56.18728646111445</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54647,7 +54647,7 @@
         <v>6788</v>
       </c>
       <c r="B6788">
-        <v>48.79662100815266</v>
+        <v>48.79662100815265</v>
       </c>
     </row>
     <row r="6789" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>22.23509455350921</v>
+        <v>22.2350945535092</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>6.645473722957603</v>
+        <v>6.645473722957602</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54719,7 +54719,7 @@
         <v>6797</v>
       </c>
       <c r="B6797">
-        <v>7.396673409254364</v>
+        <v>7.396673409254363</v>
       </c>
     </row>
     <row r="6798" spans="1:2">
@@ -54927,7 +54927,7 @@
         <v>6823</v>
       </c>
       <c r="B6823">
-        <v>68.58565675168268</v>
+        <v>68.58565675168266</v>
       </c>
     </row>
     <row r="6824" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>126.8220959151173</v>
+        <v>126.8220959151172</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55087,7 +55087,7 @@
         <v>6843</v>
       </c>
       <c r="B6843">
-        <v>59.97317813854172</v>
+        <v>59.97317813854171</v>
       </c>
     </row>
     <row r="6844" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>59.86855177773962</v>
+        <v>59.86855177773961</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55111,7 +55111,7 @@
         <v>6846</v>
       </c>
       <c r="B6846">
-        <v>49.29865169737954</v>
+        <v>49.29865169737953</v>
       </c>
     </row>
     <row r="6847" spans="1:2">
@@ -55135,7 +55135,7 @@
         <v>6849</v>
       </c>
       <c r="B6849">
-        <v>89.47107125084479</v>
+        <v>89.47107125084477</v>
       </c>
     </row>
     <row r="6850" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>103.0396741987878</v>
+        <v>103.0396741987877</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>58.3349110324248</v>
+        <v>58.33491103242479</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55447,7 +55447,7 @@
         <v>6888</v>
       </c>
       <c r="B6888">
-        <v>54.22077979169684</v>
+        <v>54.22077979169683</v>
       </c>
     </row>
     <row r="6889" spans="1:2">
@@ -55575,7 +55575,7 @@
         <v>6904</v>
       </c>
       <c r="B6904">
-        <v>82.98194799630262</v>
+        <v>82.98194799630261</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>77.11255862153452</v>
+        <v>77.1125586215345</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55783,7 +55783,7 @@
         <v>6930</v>
       </c>
       <c r="B6930">
-        <v>6.700102164564078</v>
+        <v>6.700102164564077</v>
       </c>
     </row>
     <row r="6931" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>29.66933966991996</v>
+        <v>29.66933966991995</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -56591,7 +56591,7 @@
         <v>7031</v>
       </c>
       <c r="B7031">
-        <v>20.78984403345465</v>
+        <v>20.78984403345464</v>
       </c>
     </row>
     <row r="7032" spans="1:2">
@@ -56703,7 +56703,7 @@
         <v>7045</v>
       </c>
       <c r="B7045">
-        <v>81.08660190578236</v>
+        <v>81.08660190578235</v>
       </c>
     </row>
     <row r="7046" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>74.76857645432108</v>
+        <v>74.76857645432106</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -57167,7 +57167,7 @@
         <v>7103</v>
       </c>
       <c r="B7103">
-        <v>95.88170715052306</v>
+        <v>95.88170715052304</v>
       </c>
     </row>
     <row r="7104" spans="1:2">
@@ -57423,7 +57423,7 @@
         <v>7135</v>
       </c>
       <c r="B7135">
-        <v>140.8262317336149</v>
+        <v>140.8262317336148</v>
       </c>
     </row>
     <row r="7136" spans="1:2">
@@ -57527,7 +57527,7 @@
         <v>7148</v>
       </c>
       <c r="B7148">
-        <v>45.36768985581492</v>
+        <v>45.36768985581491</v>
       </c>
     </row>
     <row r="7149" spans="1:2">
@@ -57671,7 +57671,7 @@
         <v>7166</v>
       </c>
       <c r="B7166">
-        <v>37.59984197609596</v>
+        <v>37.59984197609595</v>
       </c>
     </row>
     <row r="7167" spans="1:2">
@@ -58055,7 +58055,7 @@
         <v>7214</v>
       </c>
       <c r="B7214">
-        <v>7.295446672500734</v>
+        <v>7.295446672500733</v>
       </c>
     </row>
     <row r="7215" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>19.05861479387435</v>
+        <v>19.05861479387434</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>43.70392556933446</v>
+        <v>43.70392556933445</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>59.13499496797027</v>
+        <v>59.13499496797026</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58455,7 +58455,7 @@
         <v>7264</v>
       </c>
       <c r="B7264">
-        <v>54.23865712505518</v>
+        <v>54.23865712505517</v>
       </c>
     </row>
     <row r="7265" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>30.06674399834474</v>
+        <v>30.06674399834473</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>59.9119262914615</v>
+        <v>59.91192629146149</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58671,7 +58671,7 @@
         <v>7291</v>
       </c>
       <c r="B7291">
-        <v>6.739578833471762</v>
+        <v>6.739578833471761</v>
       </c>
     </row>
     <row r="7292" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>38.33076114651736</v>
+        <v>38.33076114651735</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>37.54357233667298</v>
+        <v>37.54357233667297</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58831,7 +58831,7 @@
         <v>7311</v>
       </c>
       <c r="B7311">
-        <v>46.93180998915052</v>
+        <v>46.93180998915051</v>
       </c>
     </row>
     <row r="7312" spans="1:2">
@@ -58855,7 +58855,7 @@
         <v>7314</v>
       </c>
       <c r="B7314">
-        <v>6.431443943423223</v>
+        <v>6.431443943423222</v>
       </c>
     </row>
     <row r="7315" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>8.796087618862288</v>
+        <v>8.796087618862286</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>58.68688934985708</v>
+        <v>58.68688934985707</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>63.13453543258165</v>
+        <v>63.13453543258164</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59231,7 +59231,7 @@
         <v>7361</v>
       </c>
       <c r="B7361">
-        <v>45.36007000880972</v>
+        <v>45.36007000880971</v>
       </c>
     </row>
     <row r="7362" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>6.605410911972597</v>
+        <v>6.605410911972596</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59359,7 +59359,7 @@
         <v>7377</v>
       </c>
       <c r="B7377">
-        <v>48.42442078905275</v>
+        <v>48.42442078905274</v>
       </c>
     </row>
     <row r="7378" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>55.34939636158168</v>
+        <v>55.34939636158167</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59383,7 +59383,7 @@
         <v>7380</v>
       </c>
       <c r="B7380">
-        <v>58.78360279261532</v>
+        <v>58.78360279261531</v>
       </c>
     </row>
     <row r="7381" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>29.04234348980788</v>
+        <v>29.04234348980787</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>7.389639704326491</v>
+        <v>7.38963970432649</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59583,7 +59583,7 @@
         <v>7405</v>
       </c>
       <c r="B7405">
-        <v>20.35891237820701</v>
+        <v>20.358912378207</v>
       </c>
     </row>
     <row r="7406" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>6.691515183131301</v>
+        <v>6.6915151831313</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>16.86362994271634</v>
+        <v>16.86362994271633</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>20.40436769630338</v>
+        <v>20.40436769630337</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60583,7 +60583,7 @@
         <v>7530</v>
       </c>
       <c r="B7530">
-        <v>6.690108442145726</v>
+        <v>6.690108442145725</v>
       </c>
     </row>
     <row r="7531" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>16.74118486276363</v>
+        <v>16.74118486276362</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -60767,7 +60767,7 @@
         <v>7553</v>
       </c>
       <c r="B7553">
-        <v>6.388333193636139</v>
+        <v>6.388333193636138</v>
       </c>
     </row>
     <row r="7554" spans="1:2">
@@ -60775,7 +60775,7 @@
         <v>7554</v>
       </c>
       <c r="B7554">
-        <v>7.414199057366312</v>
+        <v>7.414199057366311</v>
       </c>
     </row>
     <row r="7555" spans="1:2">
@@ -60951,7 +60951,7 @@
         <v>7576</v>
       </c>
       <c r="B7576">
-        <v>6.696292241061481</v>
+        <v>6.69629224106148</v>
       </c>
     </row>
     <row r="7577" spans="1:2">
@@ -63815,7 +63815,7 @@
         <v>7934</v>
       </c>
       <c r="B7934">
-        <v>20.80004290560007</v>
+        <v>20.80004290560006</v>
       </c>
     </row>
     <row r="7935" spans="1:2">
@@ -64495,7 +64495,7 @@
         <v>8019</v>
       </c>
       <c r="B8019">
-        <v>26.21877987492901</v>
+        <v>26.218779874929</v>
       </c>
     </row>
     <row r="8020" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>56.27169092024893</v>
+        <v>56.27169092024892</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64767,7 +64767,7 @@
         <v>8053</v>
       </c>
       <c r="B8053">
-        <v>59.97552270685101</v>
+        <v>59.975522706851</v>
       </c>
     </row>
     <row r="8054" spans="1:2">
@@ -64775,7 +64775,7 @@
         <v>8054</v>
       </c>
       <c r="B8054">
-        <v>58.69685376517156</v>
+        <v>58.69685376517155</v>
       </c>
     </row>
     <row r="8055" spans="1:2">
@@ -64983,7 +64983,7 @@
         <v>8080</v>
       </c>
       <c r="B8080">
-        <v>76.32302524338085</v>
+        <v>76.32302524338084</v>
       </c>
     </row>
     <row r="8081" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>37.57405172469376</v>
+        <v>37.57405172469375</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>51.75194936201366</v>
+        <v>51.75194936201365</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>96.3453455336853</v>
+        <v>96.34534553368528</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65183,7 +65183,7 @@
         <v>8105</v>
       </c>
       <c r="B8105">
-        <v>98.37075948187386</v>
+        <v>98.37075948187383</v>
       </c>
     </row>
     <row r="8106" spans="1:2">
@@ -65191,7 +65191,7 @@
         <v>8106</v>
       </c>
       <c r="B8106">
-        <v>92.43958780144555</v>
+        <v>92.43958780144554</v>
       </c>
     </row>
     <row r="8107" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>57.37979251742748</v>
+        <v>57.37979251742747</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>93.10397984609082</v>
+        <v>93.10397984609079</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65399,7 +65399,7 @@
         <v>8132</v>
       </c>
       <c r="B8132">
-        <v>45.39289396513979</v>
+        <v>45.39289396513978</v>
       </c>
     </row>
     <row r="8133" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>28.31499978605815</v>
+        <v>28.31499978605814</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -65615,7 +65615,7 @@
         <v>8159</v>
       </c>
       <c r="B8159">
-        <v>70.61839747583777</v>
+        <v>70.61839747583775</v>
       </c>
     </row>
     <row r="8160" spans="1:2">
@@ -65623,7 +65623,7 @@
         <v>8160</v>
       </c>
       <c r="B8160">
-        <v>69.27056376903424</v>
+        <v>69.27056376903423</v>
       </c>
     </row>
     <row r="8161" spans="1:2">
@@ -65647,7 +65647,7 @@
         <v>8163</v>
       </c>
       <c r="B8163">
-        <v>67.32720971167086</v>
+        <v>67.32720971167085</v>
       </c>
     </row>
     <row r="8164" spans="1:2">
@@ -65799,7 +65799,7 @@
         <v>8182</v>
       </c>
       <c r="B8182">
-        <v>103.3860841664855</v>
+        <v>103.3860841664854</v>
       </c>
     </row>
     <row r="8183" spans="1:2">
@@ -65855,7 +65855,7 @@
         <v>8189</v>
       </c>
       <c r="B8189">
-        <v>6.670208918620621</v>
+        <v>6.67020891862062</v>
       </c>
     </row>
     <row r="8190" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>17.04823538996912</v>
+        <v>17.04823538996911</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>3.174428262364228</v>
+        <v>3.174428262364227</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -65983,7 +65983,7 @@
         <v>8205</v>
       </c>
       <c r="B8205">
-        <v>7.667969269743171</v>
+        <v>7.66796926974317</v>
       </c>
     </row>
     <row r="8206" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>7.345679048527289</v>
+        <v>7.345679048527288</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>7.342543188413613</v>
+        <v>7.342543188413612</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68439,7 +68439,7 @@
         <v>8512</v>
       </c>
       <c r="B8512">
-        <v>6.315358505009464</v>
+        <v>6.315358505009463</v>
       </c>
     </row>
     <row r="8513" spans="1:2">
@@ -68527,7 +68527,7 @@
         <v>8523</v>
       </c>
       <c r="B8523">
-        <v>78.54655521370448</v>
+        <v>78.54655521370447</v>
       </c>
     </row>
     <row r="8524" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>54.42446416356647</v>
+        <v>54.42446416356646</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
